--- a/spells.xlsx
+++ b/spells.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michal_skrzypiec\my_projects\learning_rust\game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59385424-ED35-4717-BEED-EA92CD80252E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399F007B-B906-4FBC-9254-C5F50D4FAFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{631D0CCD-8E5B-4180-84BA-470CEEFA1A4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,6 +34,140 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
+  <si>
+    <t>projectile</t>
+  </si>
+  <si>
+    <t>spell</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>summon</t>
+  </si>
+  <si>
+    <t>trap</t>
+  </si>
+  <si>
+    <t>shield</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>triggers at trigger point instantly</t>
+  </si>
+  <si>
+    <t>triggers on all collisions in an area</t>
+  </si>
+  <si>
+    <t>creates a shield at the target that triggers on every collision up to a certain amount</t>
+  </si>
+  <si>
+    <t>modifiers</t>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>multiplier</t>
+  </si>
+  <si>
+    <t>creates a damaging effect/increases damage</t>
+  </si>
+  <si>
+    <t>makes the projectile faster</t>
+  </si>
+  <si>
+    <t>creates a summon with life that triggers periodically</t>
+  </si>
+  <si>
+    <t>increases summon's life time</t>
+  </si>
+  <si>
+    <t>increases shield's span</t>
+  </si>
+  <si>
+    <t>creates an 'over time effect' for the spell</t>
+  </si>
+  <si>
+    <t>creates an 'over time effect' for the area effect</t>
+  </si>
+  <si>
+    <t>shoots another projectile</t>
+  </si>
+  <si>
+    <t>triggers the spell one more time</t>
+  </si>
+  <si>
+    <t>increases the area</t>
+  </si>
+  <si>
+    <t>the summon has more life</t>
+  </si>
+  <si>
+    <t>increases shield's strength</t>
+  </si>
+  <si>
+    <t>creates a trap that takes some time to arm and then stays until a collision that triggers it</t>
+  </si>
+  <si>
+    <t>decreases trap's arming time</t>
+  </si>
+  <si>
+    <t>a projectile that goes from the trigger point to closest enemy. Triggers when finds a collision</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>the trap gets another charge</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>damage mod</t>
+  </si>
+  <si>
+    <t>multiplier mod</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>time mod</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>shoots multiple blinding projectiles</t>
+  </si>
+  <si>
+    <t>Shoots a projectile that blinds an enemy for {x} seconds</t>
+  </si>
+  <si>
+    <t>Shoots a projectile that blinds an enemy for {time(n, x)} seconds</t>
+  </si>
+  <si>
+    <t>Shoots a projectile that deals {damage(n, y)}</t>
+  </si>
+  <si>
+    <t>Shoots {multi(n)} projectiles that blind enemies for {x} seconds</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -66,13 +201,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -83,6 +232,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CA8050E5-4CAD-46F7-83A6-33D106830280}" name="Table5" displayName="Table5" ref="A1:F1048576" totalsRowShown="0">
+  <autoFilter ref="A1:F1048576" xr:uid="{CA8050E5-4CAD-46F7-83A6-33D106830280}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{300C6921-38E8-464F-8D54-9DF68508A7D4}" name="type"/>
+    <tableColumn id="2" xr3:uid="{B65F766C-6FA7-417B-8616-9643F82DFA94}" name="effect"/>
+    <tableColumn id="3" xr3:uid="{C710055E-BB70-418B-89B8-C952382A37FF}" name="damage mod"/>
+    <tableColumn id="4" xr3:uid="{BAE393B2-2D57-4A6E-9E96-F0C6B7327ECE}" name="time mod"/>
+    <tableColumn id="5" xr3:uid="{6D695980-C897-4994-9EBB-13387703B1B5}" name="multiplier mod"/>
+    <tableColumn id="6" xr3:uid="{9E33BDEA-6242-4E1F-8A26-4535456EF0A0}" name="description" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,12 +566,366 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1270288E-66B4-430D-90C0-39878E73AE01}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="C1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D166A9-473D-4EA6-BD52-200EEEC0C412}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>